--- a/tables/TableSX_assumptions_uncertainties.xlsx
+++ b/tables/TableSX_assumptions_uncertainties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/aquacast/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A06980-9E3B-4548-9213-6C21CF510564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6057F81D-98ED-0645-B374-EE7D57C24DF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5980" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{1AB40A10-9EB4-7141-9112-49658B988351}"/>
+    <workbookView xWindow="6140" yWindow="7380" windowWidth="31800" windowHeight="24180" xr2:uid="{1AB40A10-9EB4-7141-9112-49658B988351}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="90">
   <si>
     <t>Decision point</t>
   </si>
@@ -72,9 +63,6 @@
     <t>Proportion landings to reduction</t>
   </si>
   <si>
-    <t>Proportion of reduction AQ</t>
-  </si>
-  <si>
     <t>Environmental tolerance</t>
   </si>
   <si>
@@ -111,24 +99,9 @@
     <t>----</t>
   </si>
   <si>
-    <t>Farm size</t>
-  </si>
-  <si>
-    <t>Stocking density</t>
-  </si>
-  <si>
     <t>Unmodelled factors</t>
   </si>
   <si>
-    <t>Storms</t>
-  </si>
-  <si>
-    <t>Pathogens</t>
-  </si>
-  <si>
-    <t>Harmful algal blooms</t>
-  </si>
-  <si>
     <t>Technological advances</t>
   </si>
   <si>
@@ -141,9 +114,6 @@
     <t>Costs</t>
   </si>
   <si>
-    <t>Median growth rate in the wild applied in all locations</t>
-  </si>
-  <si>
     <t>No brackish species</t>
   </si>
   <si>
@@ -153,9 +123,6 @@
     <t>All other species currently cultured</t>
   </si>
   <si>
-    <t>Reason</t>
-  </si>
-  <si>
     <t>Prices</t>
   </si>
   <si>
@@ -168,10 +135,166 @@
     <t>Mechanisms for the assumption to:</t>
   </si>
   <si>
-    <t>Niche breadth across the native range</t>
-  </si>
-  <si>
     <t>Explanation of the assumption or uncertainty</t>
+  </si>
+  <si>
+    <t>We excluded brackish species to (1) make it clear that no freshwater species were included in the analysis and (2) to avoid inclusion of species cultured in tanks or saltwater ponds.</t>
+  </si>
+  <si>
+    <t>This assumption can only underestimate mariculture production potential as some of these species could potentially be grown offshore.</t>
+  </si>
+  <si>
+    <t>We excluded bivalve species such as clams, cockles, and scallops that are not commonly grown on lines given the parameterization of our cost model.</t>
+  </si>
+  <si>
+    <t>We included all other mariculture species, including species in early stages of devleopment and including species being considered from development.</t>
+  </si>
+  <si>
+    <t>This assumption can only overestimate mariculture production potential as some of these species may not be as viable for production as the model expects.</t>
+  </si>
+  <si>
+    <t>We used the median growth rate, as observed in the wild, in all locations.</t>
+  </si>
+  <si>
+    <t>We used the median mortality rate, as observed in the wild, in all locations.</t>
+  </si>
+  <si>
+    <t>This assumption is likely to underestimate mariculture production potential as growth rates are likely to be higher on farms than in the wild due to effective husbandry.</t>
+  </si>
+  <si>
+    <t>However, if site selection occurred only in the fringes of a species environmental niche, then growth rates could be lower than the wild average. This seems less likely.</t>
+  </si>
+  <si>
+    <t>Weak underestimate</t>
+  </si>
+  <si>
+    <t>This assumption may underestimate mariculture production potential as mortality rates may be lower on farms in the wild due to husbandry and the requirement of high survival for profitable mariculture.</t>
+  </si>
+  <si>
+    <t>However, differences between mortality on farms and in the wild are smaller than differences in growth rate, due to disease, crowding, and abrasion.</t>
+  </si>
+  <si>
+    <t>We used the niche breadth across the native range of a species in the wild to determin environmental suitability.</t>
+  </si>
+  <si>
+    <t>This could weakly overestimate mariculture production potential if productivety is significantly lower at the fringe of the range.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This could be an accurate assumption given that (1) husbandry and selective breeding could maintain high productivity at the fringe of environmental niches and (2) tolerance is likely wider than observations owing to sampling sparsity and other factors (e.g., competetion) determining range limits. </t>
+  </si>
+  <si>
+    <t>We assume that size at harvest is a proportion of the asymptotic size based on a meta-analysis.</t>
+  </si>
+  <si>
+    <t>This parameter is unikely to strongly impact estimates of production potential since its likely an unbiased estimator of harvest size.</t>
+  </si>
+  <si>
+    <t>We calculate time to harvest based on the derived harvest size and the median growth rate.</t>
+  </si>
+  <si>
+    <t>This assumption is likely to underestimate mariculture production potential as growth rates are likely to be higher on farms than in the wild due to effective husbandry, which means the time to harvest would be shorter than predicted by the model.</t>
+  </si>
+  <si>
+    <t>We used the GFDL-ESM2G ESM.</t>
+  </si>
+  <si>
+    <t>This model is "warmer" than other global ESMs and may therefore be more pessimisitc about future warming and its impacts on mariculture production potential.</t>
+  </si>
+  <si>
+    <t>We evaluated all four RCPs.</t>
+  </si>
+  <si>
+    <t>This thorough evaluation makes our results robusts to choice of RCP scenario.</t>
+  </si>
+  <si>
+    <t>The GFDL-ESM2G ESM projections are inherently uncertain.</t>
+  </si>
+  <si>
+    <t>However, we evaluate all four RCPs so this captures mariculture potential under four potential and contrasting futures, which is still highly useful.</t>
+  </si>
+  <si>
+    <t>The resolution of the GFDL-ESM2G ESM projections implies that the environmental values are constant throughout the whole cell.</t>
+  </si>
+  <si>
+    <t>This is an oversimplification but since the values are unbiased they should not significantly impact the results.</t>
+  </si>
+  <si>
+    <t>Finfish farm design</t>
+  </si>
+  <si>
+    <t>Bivalve farm design</t>
+  </si>
+  <si>
+    <t>Our farms are inspired by precuationary interpretatations of farm designs in the highly regulated USA. The stocking density is equivalent to the European organic standard.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our farms are inspired by precuationary interpretatations of farm designs in the highly regulated USA. The stocking density is half the U.S. standard and post-hoc analyses reveal that cultured densities are sufficiently low at the ecoregion scale. </t>
+  </si>
+  <si>
+    <t>This assumption is more likely to underestimate bivalve mariculture production potential due to the highly precautionary limit on bivalve density.</t>
+  </si>
+  <si>
+    <t>This assumption may weakly underestimate finfish mariculture production potential but is justified given our developing knowledge of the impacts of mariculture on the environment.</t>
+  </si>
+  <si>
+    <t>Both assumptions would overestimate mariculture production potential if they led to ecosystem degradation when mariculture scales to the production levels predicted by the analysis. We think this is unlikely given the level of precaution and the post-hoc analyses on bivalves.</t>
+  </si>
+  <si>
+    <t>We assume exponential decline in FIFO rates consistent with the last 20 years in our technology scenarios.</t>
+  </si>
+  <si>
+    <t>Although industry could outperform these projections, progress may slow as maintaining the nutritional content and price of feed becomes challenging with lower FIFOs. We only projected to 2050 (and apply it to 2100) to account for this.</t>
+  </si>
+  <si>
+    <t>We assume that the proportion of landings dedicated to reduction will remain constant.</t>
+  </si>
+  <si>
+    <t>It is difficult to predict this behavior and the proportion of fisheries landings reduced to FM/FO could go up or down.</t>
+  </si>
+  <si>
+    <t>It is difficult to predict this behavior and the proportion of FM/FO dedicated to aquaculture could go up or down.</t>
+  </si>
+  <si>
+    <t>We assume that the proportion of FM/FO production dedicated to mariculture will remain constant.</t>
+  </si>
+  <si>
+    <t>Proportion of FM/FO to mariculture</t>
+  </si>
+  <si>
+    <t>We assume today's prices in our base model results (30% lower in the sensitivity analysis).</t>
+  </si>
+  <si>
+    <t>This may overestimate production potential as prices are expected to fall with increased production potental. However, we found our results to be insensitive to decreases in price of 30%.</t>
+  </si>
+  <si>
+    <t>We assume current country-specific prices for fuel/wages and current U.S. costs for other capital and operational costs.</t>
+  </si>
+  <si>
+    <t>The parameterization based on the U.S. may overestimate costs and underestimate production potential.</t>
+  </si>
+  <si>
+    <t>We conducted a sensitivity analysis to confirm that our results are insensitive to a scenario in which the model underestmates costs by 30% (and prices are also 30% lower).</t>
+  </si>
+  <si>
+    <t>Storms, pathogens, and harmful algal blooms may increase under climate change and are not explicitly accounted for here.</t>
+  </si>
+  <si>
+    <t>Storms, pathogens, and HABs</t>
+  </si>
+  <si>
+    <t>The exclusion of these constraints could overestimate mariculture productin potential. However, we employ precautionary constraints to limit the effect of these stressors, model costs of insurance, and examine sensitivity of our result to underestimating costs.</t>
+  </si>
+  <si>
+    <t>We model mariculture as monocultures and do not model IMTA.</t>
+  </si>
+  <si>
+    <t>IMTA could increase the productivity of farms while also reducing costs, environmental impacts, and vulnerability to climate stessors.</t>
+  </si>
+  <si>
+    <t>We do not model the impacts of selective breeding for growth, disease resistance, or environmental tolerance.</t>
+  </si>
+  <si>
+    <t>Selective breeding could increase the productivity of mariculture and robustness to climate change. However, it would also increase costs.</t>
   </si>
 </sst>
 </file>
@@ -241,29 +364,58 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -579,326 +731,568 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5BA6D2D-42C7-D24E-A290-85055F8C2DE9}">
-  <dimension ref="A2:F50"/>
+  <dimension ref="A2:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="29.83203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="18.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="12" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="C12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" t="s">
+    <row r="21" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+      <c r="A27" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="17"/>
+      <c r="E27" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="8"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+      <c r="A30" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" t="s">
+    <row r="31" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A31" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="16"/>
+      <c r="E31" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A32" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="16"/>
+      <c r="E32" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A35" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A36" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+    </row>
+    <row r="41" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+      <c r="A41" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="15"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+    </row>
+    <row r="44" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A44" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" s="7"/>
+      <c r="E44" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" t="s">
+    <row r="45" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A45" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="6"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E38" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E39" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E44" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E45" t="s">
-        <v>2</v>
-      </c>
-    </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E46" t="s">
-        <v>2</v>
-      </c>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E49" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E50" t="s">
-        <v>1</v>
-      </c>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="8">
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
     <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
